--- a/cbrunner/Parameters/Table_BCFCS_AccountingInclusionCriteria.xlsx
+++ b/cbrunner/Parameters/Table_BCFCS_AccountingInclusionCriteria.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0330A9-BB71-4859-AFE3-9DA9E7CE677A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC4213F-DDFB-4EE1-AEA7-E82922CD9518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{DAB986EB-44DA-4900-838C-C5E9224664C8}"/>
   </bookViews>
@@ -36,29 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>The.</t>
-  </si>
-  <si>
-    <t>The controllable component of GHG fluxes excludes forcings from current natural events, the legacy of historical LUM policies, and current LUM policies that are motivated by public safety.</t>
-  </si>
-  <si>
-    <t>The material component of GHG fluxes is shaped by the recognition (i.e., inclusion or exclusion) of each LUM policy based on consideration of magnitude and confidence in estimates.</t>
-  </si>
-  <si>
-    <t>The complementary component of GHG fluxes is determined based on how the LUM policy contributes to a shared socioeconomic pathway that jointly considers the objectives of domestic forest management values and maximizing global GHG benefit.</t>
-  </si>
-  <si>
-    <t>Simplicity</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Controllability</t>
   </si>
   <si>
-    <t>Confidence and Materiality</t>
-  </si>
-  <si>
     <t>Complementary</t>
   </si>
   <si>
@@ -72,6 +54,30 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Anthropogenic</t>
+  </si>
+  <si>
+    <t>The component of total GHG emissions that are caused by humans.</t>
+  </si>
+  <si>
+    <t>The component of GHG emissions that are controllable, for example, excluding GHG emissions attributed to past actions, or motivated by comittments to public safety.</t>
+  </si>
+  <si>
+    <t>Confidence</t>
+  </si>
+  <si>
+    <t>Materiality</t>
+  </si>
+  <si>
+    <t>A threshold magnitude of GHG emissions that justifies representation of the action.</t>
+  </si>
+  <si>
+    <t>A level of scientific confidence in estimates of GHG emissions justifying representation of the action.</t>
+  </si>
+  <si>
+    <t>Does the action contribute to a shared socioeconomic pathway that jointly considers the objectives of domestic forest management values and minimising GHG emissions from the global forest sector.</t>
   </si>
 </sst>
 </file>
@@ -90,20 +96,23 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,13 +135,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -151,9 +165,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -191,7 +205,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -297,7 +311,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -439,7 +453,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -447,64 +461,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA19FD22-9413-4FCD-9F8A-B4C739A1CAE2}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
-    <col min="2" max="2" width="53" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="92.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
